--- a/Running projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Finance.xlsx
+++ b/Running projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Finance.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\Running Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B290C-5807-4A63-B23F-E30F77CB442B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE83E30E-A8B1-470B-A559-97E190709131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Grand" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
-  <si>
-    <t>Bill Summary for the project UEP 17th Floor DMC Karachi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Contract Amount</t>
   </si>
@@ -46,72 +42,24 @@
     <t>Balance Payable</t>
   </si>
   <si>
-    <t>DEDUCTION IN IPC 1</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>RETENTION AMOUNT</t>
   </si>
   <si>
-    <t>ADD SST 13%</t>
-  </si>
-  <si>
     <t>TOTAL RECEIVABLE</t>
   </si>
   <si>
-    <t>Gross Work Done</t>
-  </si>
-  <si>
-    <t>Amount Receivable</t>
-  </si>
-  <si>
-    <t>LESS SST TAX 20%</t>
-  </si>
-  <si>
-    <t>LESS WHTAX  08%</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>IPC-01</t>
-  </si>
-  <si>
     <t>IPC-02</t>
   </si>
   <si>
     <t>IPC-03</t>
   </si>
   <si>
-    <t>Verified (IPC-1 + IPC-02)</t>
-  </si>
-  <si>
-    <t>LESS Retention 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LESS Remaining Mobilization Adv </t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
     <t>Remaining</t>
   </si>
   <si>
-    <t xml:space="preserve">Gross </t>
-  </si>
-  <si>
-    <t>Verified BILL</t>
-  </si>
-  <si>
-    <t>Less Mob</t>
-  </si>
-  <si>
-    <t>Retention</t>
-  </si>
-  <si>
     <t>Received</t>
   </si>
   <si>
@@ -136,25 +84,38 @@
     <t>Net Payable</t>
   </si>
   <si>
-    <t>Mod Ad received</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mobilizatin adv </t>
   </si>
   <si>
-    <t>Extra deduct</t>
+    <t>Less tax 7.5%</t>
+  </si>
+  <si>
+    <t>Premium expenses</t>
+  </si>
+  <si>
+    <t>Total deductions</t>
+  </si>
+  <si>
+    <t>DEDUCTION IN IPC 2</t>
+  </si>
+  <si>
+    <t>DEDUCTION IN IPC 3</t>
+  </si>
+  <si>
+    <t>Cash margin refundable 15%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,14 +169,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -230,18 +183,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -256,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -284,28 +231,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -458,7 +383,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -491,72 +416,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -566,77 +452,74 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -660,16 +543,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1077385</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19757</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>382060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -692,8 +575,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="2009775"/>
-          <a:ext cx="7592485" cy="5068007"/>
+          <a:off x="12525375" y="1781175"/>
+          <a:ext cx="5954185" cy="5068007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76637</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE408A4F-B0E2-6CF7-2EA0-CFB8D39D3650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14430375" y="2324100"/>
+          <a:ext cx="3134162" cy="5982535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>324867</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>29355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F85B99-DA6B-5E83-C973-838E348B1086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="3981450"/>
+          <a:ext cx="7287642" cy="5591955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1029301</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587F7EFC-E582-A2C2-43B3-2A9CD539B13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="7505700"/>
+          <a:ext cx="4305901" cy="3943900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -971,7 +986,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,105 +996,116 @@
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="G2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="43"/>
-      <c r="J2" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="43"/>
+      <c r="A2" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="G2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="J2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="51"/>
+      <c r="A3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="52">
+      <c r="E3" s="29">
         <v>44652803</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>44652803</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2">
         <v>1639518</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="54">
+      <c r="A4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="31">
         <v>6500000</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="2"/>
+      <c r="G4" s="50">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="2">
+        <f>H3*20%</f>
+        <v>8930560.5999999996</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>289918</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="57"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="33"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="28"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="40"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="G6" s="50" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="2">
-        <v>6500000</v>
+        <f>H4*7.5%</f>
+        <v>669792.04499999993</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60" t="s">
-        <v>4</v>
+      <c r="A7" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="B7" s="10">
         <v>35449032</v>
@@ -1088,250 +1114,285 @@
         <v>6268508</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="52">
+      <c r="E7" s="29">
         <f>D7+C7+B7</f>
         <v>41717540</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="G7" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2">
+        <v>105185</v>
+      </c>
       <c r="J7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K7" s="2">
         <f>SUM(K3:K6)</f>
-        <v>1639518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
+        <v>1929436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="32"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="57"/>
-      <c r="H8" s="5"/>
+      <c r="E8" s="33"/>
+      <c r="G8" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2">
+        <f>H4*15%</f>
+        <v>1339584.0899999999</v>
+      </c>
       <c r="J8"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="12">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="51">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="52">
+      <c r="E9" s="29">
         <f>C9*E7</f>
         <v>3128815.5</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="44"/>
+      <c r="G9" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2">
+        <f>SUM(H6:H8)</f>
+        <v>2114561.1349999998</v>
+      </c>
+      <c r="I9" s="49"/>
       <c r="J9"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="32"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="57"/>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2">
-        <v>6558071</v>
-      </c>
+      <c r="E10" s="33"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="2"/>
       <c r="J10"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="51"/>
+      <c r="A11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="52">
+      <c r="E11" s="29">
         <f>E7-E9</f>
         <v>38588724.5</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="2">
+        <f>H4-H9</f>
+        <v>6815999.4649999999</v>
+      </c>
       <c r="J11"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="32"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="57"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="33"/>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6500000</v>
+      </c>
       <c r="J12"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="51"/>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9"/>
       <c r="C13" s="12">
         <v>0.2</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="61">
+      <c r="E13" s="37">
         <f>E11*20%</f>
         <v>7717744.9000000004</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <f>H11-H12</f>
+        <v>315999.46499999985</v>
+      </c>
       <c r="J13"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="56"/>
+    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="12">
         <v>0.05</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="61">
+      <c r="E14" s="37">
         <f>E11*C14</f>
         <v>1929436.2250000001</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2">
-        <f>SUM(H10:H13)</f>
-        <v>6558071</v>
-      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="56"/>
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="62">
+      <c r="E15" s="38">
         <f>E11-E13-E14</f>
         <v>28941543.375</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="67">
-        <f>H6-H14</f>
-        <v>-58071</v>
-      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="57"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="33"/>
+      <c r="G16" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="48"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="56"/>
+    <row r="17" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="57">
+      <c r="E17" s="37">
         <v>24592765.949999999</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="G17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2">
+        <v>6558071</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="51"/>
+    <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="36"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="61"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="1"/>
+      <c r="E18" s="37"/>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1159674</v>
+      </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="56"/>
+    <row r="19" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="57">
+      <c r="E19" s="37">
         <f>E15-E17</f>
         <v>4348777.4250000007</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="2"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="61"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="1"/>
+      <c r="E20" s="37"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="H21" s="1"/>
+    <row r="21" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <f>SUM(H17:H20)</f>
+        <v>7717745</v>
+      </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+    <row r="22" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="22"/>
-      <c r="H22" s="1"/>
+      <c r="E22" s="17"/>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="43">
+        <f>H4-H21</f>
+        <v>1212815.5999999996</v>
+      </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="9"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="17"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="42"/>
+      <c r="E23" s="14"/>
+      <c r="H23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="11"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="23"/>
+      <c r="E24" s="18"/>
       <c r="H24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="1"/>
       <c r="K25" s="1"/>
     </row>
@@ -1346,6 +1407,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="1"/>
       <c r="K27" s="1"/>
     </row>
@@ -1361,13 +1423,17 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="1">
+        <f>1159674+6558071</f>
+        <v>7717745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="27"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1513,36 +1579,43 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
@@ -1558,501 +1631,11 @@
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0019A813-27E7-4A27-B026-49E59ABA754C}">
-  <dimension ref="A2:M51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17">
-        <v>55163506</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37">
-        <v>55163506</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="34">
-        <v>2586024.4000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="E5" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="37">
-        <v>58378100</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="34">
-        <f>I4*13%</f>
-        <v>336183.17200000008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="17"/>
-      <c r="E6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="37">
-        <f>F5*5%</f>
-        <v>2918905</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="34">
-        <f>I5+I4</f>
-        <v>2922207.5720000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="10">
-        <v>51720488</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="37">
-        <f>F5-F6</f>
-        <v>55459195</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="34">
-        <f>I5*20%</f>
-        <v>67236.634400000024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="E8" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="37">
-        <f>F7*13%</f>
-        <v>7209695.3500000006</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="36">
-        <f>I6*8%</f>
-        <v>233776.60576000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="10">
-        <f>B7*5%</f>
-        <v>2586024.4000000004</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="37">
-        <f>F8+F7</f>
-        <v>62668890.350000001</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="34">
-        <f>I6-I7-I8</f>
-        <v>2621194.3318400006</v>
-      </c>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="E10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="37">
-        <f>9786488+18170858+11032701+8901000</f>
-        <v>47891047</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="L10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="5">
-        <f>F5</f>
-        <v>58378100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="10">
-        <f>B7-B9</f>
-        <v>49134463.600000001</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="37">
-        <f>F9-F10</f>
-        <v>14777843.350000001</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="L11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="5">
-        <v>11032701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="E12" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="37">
-        <f>F8*20%</f>
-        <v>1441939.0700000003</v>
-      </c>
-      <c r="I12" s="39">
-        <f>I9+F14</f>
-        <v>14774871.143840002</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="5">
-        <v>2918905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="22">
-        <f>B11*13%</f>
-        <v>6387480.2680000002</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="38">
-        <f>F11*8%</f>
-        <v>1182227.4680000001</v>
-      </c>
-      <c r="I13" s="1">
-        <v>35032291</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="5">
-        <v>36858346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="20"/>
-      <c r="E14" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="37">
-        <f>F11-F12-F13</f>
-        <v>12153676.812000001</v>
-      </c>
-      <c r="I14" s="1">
-        <f>I13+I12</f>
-        <v>49807162.14384</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="5">
-        <f>M10-M11-M12-M13</f>
-        <v>7568148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="22">
-        <f>B13+B11</f>
-        <v>55521943.868000001</v>
-      </c>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="K16">
-        <v>2725077</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="22">
-        <v>2545345.2000000011</v>
-      </c>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="22">
-        <f>B15-B17</f>
-        <v>52976598.667999998</v>
-      </c>
-      <c r="F19" s="1">
-        <f>B4*13%</f>
-        <v>7171255.7800000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="F20" s="1">
-        <f>F19+B4</f>
-        <v>62334761.780000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="22">
-        <f>9786488+18170858</f>
-        <v>27957346</v>
-      </c>
-      <c r="F21" s="1">
-        <f>F20*8%</f>
-        <v>4986780.9424000001</v>
-      </c>
-      <c r="I21" s="1">
-        <f>I19-I20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="F22" s="1">
-        <f>F19*20%</f>
-        <v>1434251.1560000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22">
-        <f>B19-B21</f>
-        <v>25019252.667999998</v>
-      </c>
-      <c r="F23" s="1">
-        <f>F20-F21-F22</f>
-        <v>55913729.681599997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="M25" s="1">
-        <v>11884018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="22">
-        <f>B13*20%</f>
-        <v>1277496.0536000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="17">
-        <f>B23*8%</f>
-        <v>2001540.2134399998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="23"/>
-      <c r="I28" s="1">
-        <v>18170858</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="27">
-        <f>B23-B26-B27</f>
-        <v>21740216.400959998</v>
-      </c>
-      <c r="I29" s="1">
-        <f>K16*20%</f>
-        <v>545015.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="I30" s="1">
-        <f>I28-I29</f>
-        <v>17625842.600000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="I31" s="1">
-        <f>I28*8%</f>
-        <v>1453668.6400000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="I32" s="1">
-        <f>I30-I31</f>
-        <v>16172173.960000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="F34" s="1">
-        <f>B29+I13</f>
-        <v>56772507.400959998</v>
-      </c>
-      <c r="I34" s="1">
-        <f>I32-I33</f>
-        <v>16172173.960000001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
 </file>